--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_15_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2158568.616801886</v>
+        <v>2160329.147104673</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9722274.831187136</v>
+        <v>9722274.831187135</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>40.53854489489337</v>
       </c>
       <c r="E2" t="n">
-        <v>364.9907105361165</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>96.7700327081578</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>251.4423271202893</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>166.9920602376562</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>137.9038626268959</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>4.04318711639923</v>
       </c>
       <c r="U7" t="n">
-        <v>19.58892404673123</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>283.9746808062639</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>68.11015198958077</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>71.67037196991615</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428207</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>180.0119759049455</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>14.73874327217518</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>87.2147151485303</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>2.26848612581011</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>25.52471385612724</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428209</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>134.9967644582769</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>27.31547498186472</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>172.0260335000794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>35.41770597126702</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576182</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018871</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>45.66054613217656</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>64.35711883683339</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1975.31341879663</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="C2" t="n">
-        <v>1975.31341879663</v>
+        <v>1608.732863380353</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.04772018988</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.31341879663</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X2" t="n">
-        <v>1975.31341879663</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="Y2" t="n">
-        <v>1975.31341879663</v>
+        <v>1977.695380320764</v>
       </c>
     </row>
     <row r="3">
@@ -4391,46 +4391,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>551.2876347907473</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>845.991191822219</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217532</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>701.6180721558504</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="C4" t="n">
-        <v>603.8705643698324</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D4" t="n">
-        <v>453.7539249574967</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E4" t="n">
-        <v>305.8408313751036</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234359</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U4" t="n">
-        <v>1439.817372234359</v>
+        <v>1083.251817143587</v>
       </c>
       <c r="V4" t="n">
-        <v>1439.817372234359</v>
+        <v>828.5673289377006</v>
       </c>
       <c r="W4" t="n">
-        <v>1150.400202197398</v>
+        <v>828.5673289377006</v>
       </c>
       <c r="X4" t="n">
-        <v>922.4106512993806</v>
+        <v>600.5777780396833</v>
       </c>
       <c r="Y4" t="n">
-        <v>701.6180721558504</v>
+        <v>379.7851988961531</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2144.883770458459</v>
+        <v>2144.883770458458</v>
       </c>
       <c r="C5" t="n">
-        <v>1775.921253518048</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1417.655554911297</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1031.867302313053</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>620.8813975234455</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>205.8089473684419</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4603,16 +4603,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792696</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522581</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.483610522581</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y5" t="n">
-        <v>2531.483610522581</v>
+        <v>2531.48361052258</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
@@ -4658,40 +4658,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>773.7942044041906</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>604.8580214762837</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8580214762837</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1923.210520698191</v>
       </c>
       <c r="U7" t="n">
-        <v>1404.224799275978</v>
+        <v>1634.107653823834</v>
       </c>
       <c r="V7" t="n">
-        <v>1404.224799275978</v>
+        <v>1379.423165617947</v>
       </c>
       <c r="W7" t="n">
-        <v>1404.224799275978</v>
+        <v>1090.005995580987</v>
       </c>
       <c r="X7" t="n">
-        <v>1176.23524837796</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="Y7" t="n">
-        <v>955.4426692344304</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694472</v>
+        <v>1712.341567565137</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754061</v>
+        <v>1343.379050624725</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473101</v>
+        <v>985.1133520179749</v>
       </c>
       <c r="E8" t="n">
-        <v>764.3411331473101</v>
+        <v>599.3250994197306</v>
       </c>
       <c r="F8" t="n">
-        <v>353.3552283577025</v>
+        <v>188.339194630123</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>177.3071485155236</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2862.54649786615</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>2489.08073960507</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758594</v>
+        <v>2098.941407629259</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1722.044275313594</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1494.054724415577</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5038,16 +5038,16 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694709</v>
@@ -5132,10 +5132,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797191</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2015.232266795703</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1726.157040139901</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1471.472551934014</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1182.055381897054</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1182.055381897054</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>961.2628027535235</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>275.9003817999355</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>108.7042825148155</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>108.7042825148155</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5494,70 +5494,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958784</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>633.9926444679716</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>633.9926444679716</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038386</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797788</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910814</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853366</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832668</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487572</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510513</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510513</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304626</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267666</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369648</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261182</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282754</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458823</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797191</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.280006238955</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,25 +5980,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362675</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>945.4026036630049</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C28" t="n">
-        <v>776.466420735098</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D28" t="n">
-        <v>626.3497813227623</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E28" t="n">
-        <v>626.3497813227623</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>479.4598338248519</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>312.2637345397318</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2419.37169470969</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>2199.770229732631</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.2863919474</v>
+        <v>1910.695003076829</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741513</v>
+        <v>1656.010514870942</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704552</v>
+        <v>1366.593344833982</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806535</v>
+        <v>1138.603793935964</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630049</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,16 +6691,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6709,13 +6709,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,52 +7162,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273913</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,19 +7399,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7548,22 +7548,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7636,16 +7636,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
         <v>484.8112968429803</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2314.910189088387</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2095.308724111328</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1806.233497455525</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1551.549009249638</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.131839212678</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1034.14228831466</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>813.3497091711304</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>129.4330134067488</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O3" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>62.35543909864917</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>37.39347442234279</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>66.52709304639035</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>138.4949402405068</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>144.1654765207591</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>191.880736471161</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>5.297948387947002</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>153.7108110197799</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891647</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>145.6085800303776</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>57.22910392194095</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>836474.4241574412</v>
+        <v>836474.4241574411</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>836474.4241574412</v>
+        <v>836474.424157441</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>836474.4241574414</v>
+        <v>836474.4241574411</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>836474.4241574414</v>
+        <v>836474.4241574412</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>836474.4241574414</v>
+        <v>836474.4241574411</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>836474.4241574411</v>
+        <v>836474.4241574414</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>836474.4241574411</v>
+        <v>836474.4241574412</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>836474.4241574411</v>
+        <v>836474.4241574412</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>836474.4241574411</v>
+        <v>836474.4241574412</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516054</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="F2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="G2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="H2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="I2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="J2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="K2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="L2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="M2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="F2" t="n">
-        <v>585181.2847752541</v>
-      </c>
-      <c r="G2" t="n">
-        <v>585181.2847752541</v>
-      </c>
-      <c r="H2" t="n">
-        <v>585181.2847752541</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="O2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="J2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752541</v>
-      </c>
-      <c r="L2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752547</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>585181.2847752543</v>
-      </c>
-      <c r="P2" t="n">
-        <v>585181.2847752544</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121059</v>
+        <v>203438.741612106</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605451</v>
+        <v>49110.09270605445</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551201</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.708776941697579e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.17909312021</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.17909312027</v>
       </c>
       <c r="E4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
         <v>9947.144321768897</v>
@@ -26453,7 +26453,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768799</v>
       </c>
       <c r="O4" t="n">
         <v>9947.144321768897</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26481,13 +26481,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26505,7 +26505,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-750364.6832713811</v>
       </c>
       <c r="C6" t="n">
-        <v>194748.4218849861</v>
+        <v>194748.4218849859</v>
       </c>
       <c r="D6" t="n">
-        <v>398187.1634970921</v>
+        <v>398187.1634970922</v>
       </c>
       <c r="E6" t="n">
-        <v>148351.7695678658</v>
+        <v>148664.4108967869</v>
       </c>
       <c r="F6" t="n">
-        <v>473764.2313752208</v>
+        <v>474076.8727041431</v>
       </c>
       <c r="G6" t="n">
-        <v>473764.231375221</v>
+        <v>474076.8727041429</v>
       </c>
       <c r="H6" t="n">
-        <v>473764.231375221</v>
+        <v>474076.8727041427</v>
       </c>
       <c r="I6" t="n">
-        <v>473764.2313752215</v>
+        <v>474076.8727041428</v>
       </c>
       <c r="J6" t="n">
-        <v>306159.0535652388</v>
+        <v>306471.6948941601</v>
       </c>
       <c r="K6" t="n">
-        <v>424654.1386691667</v>
+        <v>424966.7799980883</v>
       </c>
       <c r="L6" t="n">
-        <v>473764.2313752219</v>
+        <v>474076.8727041427</v>
       </c>
       <c r="M6" t="n">
-        <v>388709.2034397097</v>
+        <v>389021.8447686306</v>
       </c>
       <c r="N6" t="n">
-        <v>473764.2313752215</v>
+        <v>474076.8727041421</v>
       </c>
       <c r="O6" t="n">
-        <v>473764.2313752213</v>
+        <v>474076.8727041432</v>
       </c>
       <c r="P6" t="n">
-        <v>473764.2313752215</v>
+        <v>474076.8727041426</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26792,25 +26792,25 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000384</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>314.1444967257896</v>
       </c>
       <c r="E2" t="n">
-        <v>16.93965953614526</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>70.47678839047003</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27593,13 +27593,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>34.78482700091126</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>198.2808315333513</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>156.7039017604246</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>215.50576215977</v>
       </c>
       <c r="U7" t="n">
-        <v>266.6229141588817</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>126.9470448471895</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>226.4976123977397</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,13 +28067,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356967</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28748,7 +28748,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-2.160049916710705e-12</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31852,13 +31852,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>444.2274915982885</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34149,7 +34149,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34386,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>316.0205096502336</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>546.4575832202789</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35500,13 +35500,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096391</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>302.0934576762701</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q40" t="n">
         <v>120.4022572998984</v>
@@ -37797,7 +37797,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -38034,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
